--- a/FORM HCI (Risposte).xlsx
+++ b/FORM HCI (Risposte).xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_979A1B72FF186E46A48E9C7BF9E71B4391403E21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E70B382D-1DBF-AA41-9F74-FA56017E45BA}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Risposte del modulo 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Risposte del modulo 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="194">
   <si>
     <t>Informazioni cronologiche</t>
   </si>
@@ -100,9 +117,6 @@
     <t>Centro</t>
   </si>
   <si>
-    <t>&lt; 1</t>
-  </si>
-  <si>
     <t>Rilassarsi, Di passaggio</t>
   </si>
   <si>
@@ -164,9 +178,6 @@
   </si>
   <si>
     <t>Rilassarsi, Stare a contatto con la natura, Di passaggio</t>
-  </si>
-  <si>
-    <t>&lt;18</t>
   </si>
   <si>
     <t>55 - 64</t>
@@ -589,29 +600,37 @@
   </si>
   <si>
     <t>https://www4.ceda.polimi.it/manifesti/manifesti/controller/ManifestoPublic.do?EVN_DETTAGLIO_RIGA_MANIFESTO=evento&amp;aa=2024&amp;k_cf=225&amp;k_corso_la=471&amp;k_indir=BBB&amp;codDescr=098454&amp;lang=IT&amp;semestre=1&amp;anno_corso=1&amp;idItemOfferta=169524&amp;idRiga=310165</t>
+  </si>
+  <si>
+    <t>18 -</t>
+  </si>
+  <si>
+    <t>1 -</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
@@ -621,11 +640,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -639,6 +664,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -653,6 +679,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -667,6 +694,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -681,6 +709,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -695,6 +724,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -709,6 +739,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -723,6 +754,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -737,6 +769,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -751,6 +784,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -765,6 +799,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -779,6 +814,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -793,147 +829,137 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Risposte del modulo 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Risposte del modulo 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q196" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:Q196">
   <tableColumns count="17">
-    <tableColumn name="Informazioni cronologiche" id="1"/>
-    <tableColumn name="Età" id="2"/>
-    <tableColumn name="Scegli il tuo genere:" id="3"/>
-    <tableColumn name="Qual è la tua professione?" id="4"/>
-    <tableColumn name="In che zona della città vivi?" id="5"/>
-    <tableColumn name="Hai qualche forma di disabilità fisica?" id="6"/>
-    <tableColumn name="Specifica la tipologia di disabilità fisica (Facoltativo)" id="7"/>
-    <tableColumn name="Frequenti parchi pubblici? (Anche solo come luogo di passaggio)" id="8"/>
-    <tableColumn name="Quante volte alla settimana trascorri del tempo in un parco pubblico?" id="9"/>
-    <tableColumn name="Quanto tempo trascorri mediamente nel parco ad ogni visita? (in ore)" id="10"/>
-    <tableColumn name="In quale momento della giornata, solitamente, frequenti un parco?" id="11"/>
-    <tableColumn name="Scegli una o più motivazioni principali per le quali trascorri del tempo in un parco pubblico:" id="12"/>
-    <tableColumn name="Solitamente, ti soddisfa la tua permanenza in un parco pubblico?" id="13"/>
-    <tableColumn name="C'è qualcosa che vorresti fosse migliorata nei parchi pubblici che frequenti? (Facoltativo)" id="14"/>
-    <tableColumn name="Seleziona uno o più motivi per i quali non frequenti parchi pubblici della tua zona:" id="15"/>
-    <tableColumn name="Cosa potrebbe spingerti a frequentare parchi pubblici? (Facoltativo)" id="16"/>
-    <tableColumn name="Contatto per un'intervista futura (Facoltativo)" id="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Informazioni cronologiche"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Età"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Scegli il tuo genere:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Qual è la tua professione?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="In che zona della città vivi?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Hai qualche forma di disabilità fisica?"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Specifica la tipologia di disabilità fisica (Facoltativo)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Frequenti parchi pubblici? (Anche solo come luogo di passaggio)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Quante volte alla settimana trascorri del tempo in un parco pubblico?"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Quanto tempo trascorri mediamente nel parco ad ogni visita? (in ore)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="In quale momento della giornata, solitamente, frequenti un parco?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Scegli una o più motivazioni principali per le quali trascorri del tempo in un parco pubblico:"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Solitamente, ti soddisfa la tua permanenza in un parco pubblico?"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="C'è qualcosa che vorresti fosse migliorata nei parchi pubblici che frequenti? (Facoltativo)"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Seleziona uno o più motivi per i quali non frequenti parchi pubblici della tua zona:"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Cosa potrebbe spingerti a frequentare parchi pubblici? (Facoltativo)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Contatto per un'intervista futura (Facoltativo)"/>
   </tableColumns>
-  <tableStyleInfo name="Risposte del modulo 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Risposte del modulo 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1123,33 +1149,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="D96" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.38"/>
-    <col customWidth="1" min="2" max="2" width="18.88"/>
-    <col customWidth="1" min="3" max="3" width="19.5"/>
-    <col customWidth="1" min="4" max="4" width="24.13"/>
-    <col customWidth="1" min="5" max="5" width="24.63"/>
-    <col customWidth="1" min="6" max="6" width="32.5"/>
-    <col customWidth="1" min="7" max="17" width="37.63"/>
-    <col customWidth="1" min="18" max="23" width="18.88"/>
+    <col min="1" max="1" width="24.40625" customWidth="1"/>
+    <col min="2" max="2" width="18.87890625" customWidth="1"/>
+    <col min="3" max="3" width="19.55078125" customWidth="1"/>
+    <col min="4" max="4" width="24.13671875" customWidth="1"/>
+    <col min="5" max="5" width="24.67578125" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="7" max="17" width="37.62109375" customWidth="1"/>
+    <col min="18" max="23" width="18.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,9 +1232,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
-        <v>45563.51513850695</v>
+        <v>45563.515138506948</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -1245,7 +1275,7 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>45563.517891932876</v>
       </c>
@@ -1268,22 +1298,22 @@
         <v>22</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="M3" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>45563.51873758102</v>
       </c>
@@ -1306,10 +1336,10 @@
         <v>21</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>45563.518825555555</v>
       </c>
@@ -1332,22 +1362,22 @@
         <v>22</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="M5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>45563.520024537036</v>
       </c>
@@ -1370,33 +1400,33 @@
         <v>22</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>45563.522394432875</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>20</v>
@@ -1408,10 +1438,10 @@
         <v>21</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>45563.52338677083</v>
       </c>
@@ -1437,21 +1467,21 @@
         <v>23</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
-        <v>45563.52424028935</v>
+        <v>45563.524240289349</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>17</v>
@@ -1481,16 +1511,16 @@
         <v>24</v>
       </c>
       <c r="L9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>45563.52461743055</v>
       </c>
@@ -1513,21 +1543,21 @@
         <v>21</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>45563.528089467596</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>28</v>
@@ -1542,30 +1572,30 @@
         <v>23</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
-        <v>45563.53129621528</v>
+        <v>45563.531296215282</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>20</v>
@@ -1577,12 +1607,12 @@
         <v>21</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
-        <v>45563.53257378472</v>
+        <v>45563.532573784723</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>17</v>
@@ -1594,42 +1624,42 @@
         <v>19</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="M13" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
-        <v>45563.53416460648</v>
+        <v>45563.534164606477</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>20</v>
@@ -1647,16 +1677,16 @@
         <v>23</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>45563.53586319444</v>
       </c>
@@ -1679,24 +1709,24 @@
         <v>22</v>
       </c>
       <c r="I15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="M15" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
-        <v>45563.53595238426</v>
+        <v>45563.535952384264</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>17</v>
@@ -1708,7 +1738,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>21</v>
@@ -1726,18 +1756,18 @@
         <v>24</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
-        <v>45563.53628648148</v>
+        <v>45563.536286481482</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>18</v>
@@ -1755,7 +1785,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>23</v>
@@ -1770,18 +1800,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>45563.540308923606</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>20</v>
@@ -1793,7 +1823,7 @@
         <v>22</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>23</v>
@@ -1802,18 +1832,18 @@
         <v>24</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
-        <v>45563.54068276621</v>
+        <v>45563.540682766208</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>17</v>
@@ -1843,21 +1873,21 @@
         <v>24</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="12">
-        <v>3.283654615E9</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>3283654615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
-        <v>45563.54088377315</v>
+        <v>45563.540883773152</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>17</v>
@@ -1869,7 +1899,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>21</v>
@@ -1887,13 +1917,13 @@
         <v>24</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>45563.541297916665</v>
       </c>
@@ -1916,22 +1946,22 @@
         <v>22</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>45563.542972905096</v>
       </c>
@@ -1954,15 +1984,15 @@
         <v>21</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
-        <v>45563.54357306713</v>
+        <v>45563.543573067131</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>17</v>
@@ -1986,21 +2016,21 @@
         <v>23</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
-        <v>45563.54664793982</v>
+        <v>45563.546647939816</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>17</v>
@@ -2009,7 +2039,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>20</v>
@@ -2021,22 +2051,22 @@
         <v>22</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>45563.549348043976</v>
       </c>
@@ -2059,12 +2089,12 @@
         <v>21</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
-        <v>45563.55055380787</v>
+        <v>45563.550553807872</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>17</v>
@@ -2088,37 +2118,37 @@
         <v>23</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="N26" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>45563.553222812501</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8">
-        <v>45563.5532228125</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="F27" s="9" t="s">
         <v>21</v>
       </c>
@@ -2129,30 +2159,30 @@
         <v>23</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>45563.556081296294</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>20</v>
@@ -2164,13 +2194,13 @@
         <v>21</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>45563.556423449074</v>
       </c>
@@ -2193,7 +2223,7 @@
         <v>22</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>23</v>
@@ -2202,15 +2232,15 @@
         <v>24</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
-        <v>45563.55839189814</v>
+        <v>45563.558391898143</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>17</v>
@@ -2222,7 +2252,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>21</v>
@@ -2240,103 +2270,103 @@
         <v>24</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>26</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>45563.558685462966</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="9" t="s">
+    </row>
+    <row r="32" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A32" s="10">
+        <v>45563.559510104169</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="9" t="s">
+      <c r="M32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="10">
-        <v>45563.55951010417</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33">
+    <row r="33" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
-        <v>45563.55959644676</v>
+        <v>45563.559596446757</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>18</v>
@@ -2354,30 +2384,30 @@
         <v>22</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
-        <v>45563.56017471065</v>
+        <v>45563.560174710648</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>27</v>
@@ -2395,10 +2425,10 @@
         <v>21</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>45563.561670243056</v>
       </c>
@@ -2412,7 +2442,7 @@
         <v>19</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>21</v>
@@ -2424,30 +2454,30 @@
         <v>23</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
-        <v>45563.56608050926</v>
+        <v>45563.566080509263</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>28</v>
@@ -2459,33 +2489,33 @@
         <v>22</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
-        <v>45563.56841082176</v>
+        <v>45563.568410821761</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>20</v>
@@ -2497,7 +2527,7 @@
         <v>22</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>23</v>
@@ -2506,27 +2536,27 @@
         <v>24</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A38" s="10">
         <v>45563.572711967594</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>21</v>
@@ -2535,62 +2565,62 @@
         <v>21</v>
       </c>
       <c r="O38" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A39" s="8">
+        <v>45563.574535856482</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="8">
-        <v>45563.57453585648</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="M39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A40" s="10">
         <v>45563.579645983795</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>20</v>
@@ -2602,21 +2632,21 @@
         <v>21</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
-        <v>45563.57975424769</v>
+        <v>45563.579754247687</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>20</v>
@@ -2628,19 +2658,19 @@
         <v>22</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N41" s="9" t="s">
         <v>21</v>
@@ -2649,18 +2679,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A42" s="10">
-        <v>45563.57990166667</v>
+        <v>45563.579901666672</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>28</v>
@@ -2672,10 +2702,10 @@
         <v>21</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>45563.5812730787</v>
       </c>
@@ -2698,21 +2728,21 @@
         <v>21</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A44" s="10">
         <v>45563.583170763886</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>28</v>
@@ -2724,24 +2754,24 @@
         <v>21</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>45563.584746249995</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>28</v>
@@ -2756,27 +2786,27 @@
         <v>23</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L45" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q45" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46">
+    </row>
+    <row r="46" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A46" s="10">
-        <v>45563.58496201389</v>
+        <v>45563.584962013891</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>17</v>
@@ -2800,22 +2830,22 @@
         <v>23</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <v>45563.586601863426</v>
       </c>
@@ -2838,33 +2868,33 @@
         <v>22</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A48" s="10">
         <v>45563.587130960645</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>28</v>
@@ -2882,30 +2912,30 @@
         <v>23</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M48" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
-        <v>45563.58785952546</v>
+        <v>45563.587859525462</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>21</v>
@@ -2923,15 +2953,15 @@
         <v>24</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A50" s="10">
-        <v>45563.58905775463</v>
+        <v>45563.589057754631</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>17</v>
@@ -2940,7 +2970,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>20</v>
@@ -2952,24 +2982,24 @@
         <v>22</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M50" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
-        <v>45563.59022131945</v>
+        <v>45563.590221319449</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>17</v>
@@ -2990,7 +3020,7 @@
         <v>22</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>23</v>
@@ -2999,15 +3029,15 @@
         <v>24</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A52" s="10">
-        <v>45563.59040446759</v>
+        <v>45563.590404467592</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>17</v>
@@ -3019,7 +3049,7 @@
         <v>19</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>21</v>
@@ -3028,33 +3058,33 @@
         <v>22</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M52" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A53" s="8">
         <v>45563.590539212964</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>20</v>
@@ -3066,12 +3096,12 @@
         <v>21</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
-        <v>45563.59186438657</v>
+        <v>45563.591864386573</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>17</v>
@@ -3080,7 +3110,7 @@
         <v>27</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>20</v>
@@ -3092,10 +3122,10 @@
         <v>21</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A55" s="8">
         <v>45563.59345137731</v>
       </c>
@@ -3118,22 +3148,22 @@
         <v>22</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
         <v>45563.594260405094</v>
       </c>
@@ -3159,21 +3189,21 @@
         <v>23</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M56" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A57" s="8">
-        <v>45563.59473077546</v>
+        <v>45563.594730775461</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>17</v>
@@ -3194,60 +3224,60 @@
         <v>22</v>
       </c>
       <c r="I57" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A58" s="10">
+        <v>45563.595038437503</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J57" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="10">
-        <v>45563.5950384375</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="M58" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
         <v>45563.595528680555</v>
       </c>
@@ -3273,22 +3303,22 @@
         <v>23</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A60" s="10">
         <v>45563.596381828705</v>
       </c>
@@ -3314,19 +3344,19 @@
         <v>23</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A61" s="8">
         <v>45563.59684327546</v>
       </c>
@@ -3340,7 +3370,7 @@
         <v>19</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>21</v>
@@ -3358,18 +3388,18 @@
         <v>24</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A62" s="10">
-        <v>45563.59716936343</v>
+        <v>45563.597169363427</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>17</v>
@@ -3378,27 +3408,27 @@
         <v>27</v>
       </c>
       <c r="D62" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63">
+    </row>
+    <row r="63" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A63" s="8">
         <v>45563.599034479164</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>27</v>
@@ -3407,7 +3437,7 @@
         <v>19</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>21</v>
@@ -3416,7 +3446,7 @@
         <v>22</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>23</v>
@@ -3425,15 +3455,15 @@
         <v>24</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A64" s="10">
-        <v>45563.59937869213</v>
+        <v>45563.599378692132</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>17</v>
@@ -3442,7 +3472,7 @@
         <v>18</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>20</v>
@@ -3454,24 +3484,24 @@
         <v>22</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J64" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A65" s="8">
-        <v>45563.60341125</v>
+        <v>45563.603411249998</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>17</v>
@@ -3498,18 +3528,18 @@
         <v>23</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A66" s="10">
-        <v>45563.60678483796</v>
+        <v>45563.606784837961</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>17</v>
@@ -3539,21 +3569,21 @@
         <v>24</v>
       </c>
       <c r="L66" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q66" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="M66" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N66" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q66" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67">
+    </row>
+    <row r="67" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A67" s="8">
-        <v>45563.60693487269</v>
+        <v>45563.606934872689</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>17</v>
@@ -3562,7 +3592,7 @@
         <v>18</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>20</v>
@@ -3574,18 +3604,18 @@
         <v>21</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A68" s="10">
-        <v>45563.61071233796</v>
+        <v>45563.610712337962</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>19</v>
@@ -3600,24 +3630,24 @@
         <v>22</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J68" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M68" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A69" s="8">
-        <v>45563.61072228009</v>
+        <v>45563.610722280093</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>17</v>
@@ -3629,7 +3659,7 @@
         <v>19</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>21</v>
@@ -3638,7 +3668,7 @@
         <v>22</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>23</v>
@@ -3647,15 +3677,15 @@
         <v>24</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A70" s="10">
-        <v>45563.61075583333</v>
+        <v>45563.610755833331</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>17</v>
@@ -3676,54 +3706,54 @@
         <v>21</v>
       </c>
       <c r="O70" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q70" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="P70" s="11" t="s">
+    </row>
+    <row r="71" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A71" s="8">
+        <v>45563.611819652782</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="Q70" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="8">
-        <v>45563.61181965278</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="M71" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A72" s="10">
         <v>45563.6127853125</v>
       </c>
@@ -3746,30 +3776,30 @@
         <v>22</v>
       </c>
       <c r="I72" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L72" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J72" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L72" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="M72" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q72" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A73" s="8">
-        <v>45563.61511511574</v>
+        <v>45563.615115115739</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>17</v>
@@ -3793,30 +3823,30 @@
         <v>23</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A74" s="10">
         <v>45563.615540451385</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>28</v>
@@ -3828,24 +3858,24 @@
         <v>22</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A75" s="8">
-        <v>45563.61638849537</v>
+        <v>45563.616388495371</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>17</v>
@@ -3866,22 +3896,22 @@
         <v>22</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K75" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A76" s="10">
         <v>45563.617912511574</v>
       </c>
@@ -3904,22 +3934,22 @@
         <v>22</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K76" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M76" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A77" s="8">
         <v>45563.618452905095</v>
       </c>
@@ -3942,21 +3972,21 @@
         <v>21</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A78" s="10">
-        <v>45563.61864613426</v>
+        <v>45563.618646134259</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>20</v>
@@ -3977,27 +4007,27 @@
         <v>24</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M78" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A79" s="8">
-        <v>45563.62111729167</v>
+        <v>45563.621117291666</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>28</v>
@@ -4009,24 +4039,24 @@
         <v>22</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K79" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M79" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A80" s="10">
-        <v>45563.62223850694</v>
+        <v>45563.622238506941</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>17</v>
@@ -4047,24 +4077,24 @@
         <v>22</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J80" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L80" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K80" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L80" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="M80" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A81" s="8">
-        <v>45563.62268236111</v>
+        <v>45563.622682361107</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>17</v>
@@ -4094,18 +4124,18 @@
         <v>24</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A82" s="10">
-        <v>45563.62278556713</v>
+        <v>45563.622785567131</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>17</v>
@@ -4129,7 +4159,7 @@
         <v>23</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>24</v>
@@ -4141,56 +4171,56 @@
         <v>26</v>
       </c>
       <c r="N82" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A83" s="8">
+        <v>45563.623331365743</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N83" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="8">
-        <v>45563.62333136574</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="Q83" s="12">
-        <v>3.454245127E9</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>3454245127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A84" s="10">
-        <v>45563.62635476852</v>
+        <v>45563.626354768523</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>17</v>
@@ -4211,24 +4241,24 @@
         <v>22</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A85" s="8">
-        <v>45563.62707747685</v>
+        <v>45563.627077476849</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>17</v>
@@ -4249,12 +4279,12 @@
         <v>21</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A86" s="10">
-        <v>45563.62770819444</v>
+        <v>45563.627708194443</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>17</v>
@@ -4278,37 +4308,37 @@
         <v>23</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L86" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M86" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="Q86" s="13">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A87" s="8">
+        <v>45563.635200474542</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q86" s="13">
-        <v>911.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="8">
-        <v>45563.63520047454</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="F87" s="9" t="s">
         <v>21</v>
       </c>
@@ -4325,18 +4355,18 @@
         <v>24</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M87" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A88" s="10">
-        <v>45563.63729972222</v>
+        <v>45563.637299722221</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>17</v>
@@ -4348,7 +4378,7 @@
         <v>19</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>21</v>
@@ -4360,21 +4390,21 @@
         <v>23</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A89" s="8">
-        <v>45563.63997836805</v>
+        <v>45563.639978368054</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>17</v>
@@ -4398,19 +4428,19 @@
         <v>23</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M89" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A90" s="10">
         <v>45563.644392581016</v>
       </c>
@@ -4433,15 +4463,15 @@
         <v>21</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P90" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A91" s="8">
-        <v>45563.64672184028</v>
+        <v>45563.646721840283</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>17</v>
@@ -4450,7 +4480,7 @@
         <v>27</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>20</v>
@@ -4462,22 +4492,22 @@
         <v>22</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L91" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M91" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M91" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92">
+    </row>
+    <row r="92" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A92" s="10">
         <v>45563.647591851855</v>
       </c>
@@ -4500,30 +4530,30 @@
         <v>22</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J92" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M92" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N92" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q92" s="13">
-        <v>3.899190256E9</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>3899190256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A93" s="8">
-        <v>45563.65010453704</v>
+        <v>45563.650104537039</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>17</v>
@@ -4547,7 +4577,7 @@
         <v>23</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K93" s="9" t="s">
         <v>24</v>
@@ -4559,9 +4589,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A94" s="10">
-        <v>45563.65259540509</v>
+        <v>45563.652595405089</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>17</v>
@@ -4573,7 +4603,7 @@
         <v>19</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>21</v>
@@ -4582,24 +4612,24 @@
         <v>22</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K94" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M94" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A95" s="8">
-        <v>45563.65434440972</v>
+        <v>45563.654344409719</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>17</v>
@@ -4632,10 +4662,10 @@
         <v>25</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A96" s="10">
         <v>45563.655824444446</v>
       </c>
@@ -4646,10 +4676,10 @@
         <v>27</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>21</v>
@@ -4667,15 +4697,15 @@
         <v>24</v>
       </c>
       <c r="L96" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A97" s="8">
-        <v>45563.65741322917</v>
+        <v>45563.657413229172</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>17</v>
@@ -4687,7 +4717,7 @@
         <v>19</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>21</v>
@@ -4696,7 +4726,7 @@
         <v>22</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>23</v>
@@ -4705,13 +4735,13 @@
         <v>24</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A98" s="10">
         <v>45563.659063576386</v>
       </c>
@@ -4725,7 +4755,7 @@
         <v>19</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F98" s="11" t="s">
         <v>21</v>
@@ -4734,33 +4764,33 @@
         <v>22</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J98" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A99" s="8">
-        <v>45563.66283166667</v>
+        <v>45563.662831666668</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>20</v>
@@ -4772,15 +4802,15 @@
         <v>21</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A100" s="10">
-        <v>45563.66421349537</v>
+        <v>45563.664213495373</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>17</v>
@@ -4804,21 +4834,21 @@
         <v>23</v>
       </c>
       <c r="J100" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M100" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A101" s="8">
-        <v>45563.66715378472</v>
+        <v>45563.667153784721</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>17</v>
@@ -4839,24 +4869,24 @@
         <v>21</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A102" s="10">
-        <v>45563.67527940973</v>
+        <v>45563.675279409726</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>28</v>
@@ -4871,21 +4901,21 @@
         <v>23</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K102" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L102" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M102" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A103" s="8">
-        <v>45563.69126777777</v>
+        <v>45563.691267777773</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>17</v>
@@ -4894,10 +4924,10 @@
         <v>27</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>21</v>
@@ -4906,22 +4936,22 @@
         <v>22</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K103" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L103" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M103" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M103" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104">
+    </row>
+    <row r="104" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A104" s="10">
         <v>45563.6928152662</v>
       </c>
@@ -4935,7 +4965,7 @@
         <v>19</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>21</v>
@@ -4944,21 +4974,21 @@
         <v>21</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A105" s="8">
         <v>45563.693807372685</v>
       </c>
       <c r="B105" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>28</v>
@@ -4973,33 +5003,33 @@
         <v>23</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K105" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M105" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N105" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A106" s="10">
-        <v>45563.69426586806</v>
+        <v>45563.694265868056</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>20</v>
@@ -5011,27 +5041,27 @@
         <v>21</v>
       </c>
       <c r="O106" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P106" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q106" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A107" s="8">
-        <v>45563.69705958333</v>
+        <v>45563.697059583334</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>28</v>
@@ -5043,33 +5073,33 @@
         <v>22</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A108" s="10">
-        <v>45563.69764975694</v>
+        <v>45563.697649756941</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>28</v>
@@ -5081,33 +5111,33 @@
         <v>22</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J108" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L108" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M108" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A109" s="8">
         <v>45563.698007997686</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>28</v>
@@ -5122,24 +5152,24 @@
         <v>23</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N109" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A110" s="10">
-        <v>45563.69933461805</v>
+        <v>45563.699334618053</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>17</v>
@@ -5160,7 +5190,7 @@
         <v>22</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J110" s="11" t="s">
         <v>23</v>
@@ -5169,18 +5199,18 @@
         <v>24</v>
       </c>
       <c r="L110" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M110" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N110" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A111" s="8">
-        <v>45563.7102833449</v>
+        <v>45563.710283344903</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>17</v>
@@ -5201,7 +5231,7 @@
         <v>22</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J111" s="9" t="s">
         <v>23</v>
@@ -5210,13 +5240,13 @@
         <v>24</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M111" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A112" s="10">
         <v>45563.718334467594</v>
       </c>
@@ -5230,7 +5260,7 @@
         <v>19</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>21</v>
@@ -5242,33 +5272,33 @@
         <v>23</v>
       </c>
       <c r="J112" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L112" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K112" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L112" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="M112" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A113" s="8">
         <v>45563.7190796875</v>
       </c>
       <c r="B113" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C113" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="E113" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>21</v>
@@ -5286,13 +5316,13 @@
         <v>24</v>
       </c>
       <c r="L113" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M113" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A114" s="10">
         <v>45563.720270578706</v>
       </c>
@@ -5306,7 +5336,7 @@
         <v>19</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>21</v>
@@ -5321,16 +5351,16 @@
         <v>23</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L114" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A115" s="8">
         <v>45563.72642997685</v>
       </c>
@@ -5344,7 +5374,7 @@
         <v>19</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>21</v>
@@ -5353,7 +5383,7 @@
         <v>22</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J115" s="9" t="s">
         <v>23</v>
@@ -5362,18 +5392,18 @@
         <v>24</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M115" s="9" t="s">
         <v>26</v>
       </c>
       <c r="Q115" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A116" s="10">
-        <v>45563.72643164352</v>
+        <v>45563.726431643518</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>17</v>
@@ -5394,30 +5424,30 @@
         <v>22</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K116" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L116" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M116" s="11" t="s">
         <v>26</v>
       </c>
       <c r="Q116" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A117" s="8">
         <v>45563.729896944445</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>18</v>
@@ -5444,27 +5474,27 @@
         <v>24</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M117" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A118" s="10">
-        <v>45563.73513755787</v>
+        <v>45563.735137557873</v>
       </c>
       <c r="B118" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C118" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="E118" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>21</v>
@@ -5479,16 +5509,16 @@
         <v>23</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L118" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M118" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A119" s="8">
         <v>45563.74327791667</v>
       </c>
@@ -5511,7 +5541,7 @@
         <v>22</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J119" s="9" t="s">
         <v>23</v>
@@ -5520,27 +5550,27 @@
         <v>24</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M119" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N119" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A120" s="10">
         <v>45563.743624490744</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>20</v>
@@ -5552,7 +5582,7 @@
         <v>22</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J120" s="11" t="s">
         <v>23</v>
@@ -5561,15 +5591,15 @@
         <v>24</v>
       </c>
       <c r="L120" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M120" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A121" s="8">
-        <v>45563.74777641204</v>
+        <v>45563.747776412041</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>17</v>
@@ -5590,24 +5620,24 @@
         <v>22</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K121" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L121" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A122" s="10">
-        <v>45563.75102835648</v>
+        <v>45563.751028356477</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>17</v>
@@ -5628,24 +5658,24 @@
         <v>22</v>
       </c>
       <c r="I122" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L122" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J122" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K122" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L122" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="M122" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A123" s="8">
-        <v>45563.75476172454</v>
+        <v>45563.754761724536</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>17</v>
@@ -5654,10 +5684,10 @@
         <v>27</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>21</v>
@@ -5675,24 +5705,24 @@
         <v>24</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M123" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A124" s="10">
-        <v>45563.76146891204</v>
+        <v>45563.761468912038</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>28</v>
@@ -5704,12 +5734,12 @@
         <v>21</v>
       </c>
       <c r="O124" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A125" s="8">
-        <v>45563.76564017361</v>
+        <v>45563.765640173609</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>17</v>
@@ -5721,7 +5751,7 @@
         <v>19</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>21</v>
@@ -5730,21 +5760,21 @@
         <v>21</v>
       </c>
       <c r="O125" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A126" s="10">
-        <v>45563.76611989584</v>
+        <v>45563.766119895838</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>20</v>
@@ -5756,7 +5786,7 @@
         <v>22</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J126" s="11" t="s">
         <v>23</v>
@@ -5765,18 +5795,18 @@
         <v>24</v>
       </c>
       <c r="L126" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A127" s="8">
         <v>45563.771617175924</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>27</v>
@@ -5803,16 +5833,16 @@
         <v>24</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M127" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N127" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A128" s="10">
         <v>45563.776515219906</v>
       </c>
@@ -5826,7 +5856,7 @@
         <v>19</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F128" s="11" t="s">
         <v>21</v>
@@ -5835,24 +5865,24 @@
         <v>22</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J128" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K128" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L128" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M128" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A129" s="8">
-        <v>45563.78177299768</v>
+        <v>45563.781772997681</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>17</v>
@@ -5864,7 +5894,7 @@
         <v>19</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>21</v>
@@ -5873,15 +5903,15 @@
         <v>21</v>
       </c>
       <c r="O129" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P129" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A130" s="10">
-        <v>45563.78645289352</v>
+        <v>45563.786452893517</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>17</v>
@@ -5902,10 +5932,10 @@
         <v>21</v>
       </c>
       <c r="O130" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A131" s="8">
         <v>45563.78782258102</v>
       </c>
@@ -5928,39 +5958,39 @@
         <v>22</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J131" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q131" s="12">
-        <v>3.45401389E9</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>3454013890</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A132" s="10">
-        <v>45563.80225233796</v>
+        <v>45563.802252337962</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>20</v>
@@ -5972,24 +6002,24 @@
         <v>22</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L132" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M132" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A133" s="8">
-        <v>45563.80563582176</v>
+        <v>45563.805635821758</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>17</v>
@@ -6013,33 +6043,33 @@
         <v>23</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L133" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M133" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A134" s="10">
         <v>45563.806994687504</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>21</v>
@@ -6051,25 +6081,25 @@
         <v>23</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L134" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M134" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N134" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q134" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A135" s="8">
         <v>45563.807953958334</v>
       </c>
@@ -6095,19 +6125,19 @@
         <v>23</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K135" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L135" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M135" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A136" s="10">
         <v>45563.812709039354</v>
       </c>
@@ -6121,7 +6151,7 @@
         <v>19</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>21</v>
@@ -6139,15 +6169,15 @@
         <v>24</v>
       </c>
       <c r="L136" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M136" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A137" s="8">
-        <v>45563.82158440972</v>
+        <v>45563.821584409721</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>17</v>
@@ -6171,33 +6201,33 @@
         <v>23</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K137" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L137" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A138" s="10">
         <v>45563.823570266206</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>21</v>
@@ -6206,7 +6236,7 @@
         <v>22</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J138" s="11" t="s">
         <v>23</v>
@@ -6215,13 +6245,13 @@
         <v>24</v>
       </c>
       <c r="L138" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M138" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A139" s="8">
         <v>45563.835921342594</v>
       </c>
@@ -6232,7 +6262,7 @@
         <v>27</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>20</v>
@@ -6247,24 +6277,24 @@
         <v>23</v>
       </c>
       <c r="J139" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L139" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K139" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L139" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="M139" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A140" s="10">
-        <v>45563.8487307176</v>
+        <v>45563.848730717596</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>18</v>
@@ -6282,12 +6312,12 @@
         <v>21</v>
       </c>
       <c r="O140" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A141" s="8">
-        <v>45563.86802837963</v>
+        <v>45563.868028379628</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>17</v>
@@ -6311,34 +6341,34 @@
         <v>23</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L141" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M141" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M141" s="9" t="s">
+    </row>
+    <row r="142" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A142" s="10">
+        <v>45563.879666516208</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="10">
-        <v>45563.87966651621</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="F142" s="11" t="s">
         <v>21</v>
       </c>
@@ -6355,44 +6385,44 @@
         <v>24</v>
       </c>
       <c r="L142" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M142" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N142" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A143" s="8">
         <v>45563.880275578704</v>
       </c>
       <c r="B143" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C143" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="9" t="s">
+      <c r="E143" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O143" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E143" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O143" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="144">
+    </row>
+    <row r="144" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A144" s="10">
-        <v>45563.88220850694</v>
+        <v>45563.882208506941</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>17</v>
@@ -6404,7 +6434,7 @@
         <v>19</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F144" s="11" t="s">
         <v>21</v>
@@ -6416,63 +6446,63 @@
         <v>23</v>
       </c>
       <c r="J144" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K144" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L144" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M144" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A145" s="8">
+        <v>45563.886956388887</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K145" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K144" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L144" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="M144" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="8">
-        <v>45563.88695638889</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K145" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="L145" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M145" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N145" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q145" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="M145" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N145" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q145" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="146">
+    </row>
+    <row r="146" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A146" s="10">
         <v>45563.88788465278</v>
       </c>
@@ -6504,15 +6534,15 @@
         <v>24</v>
       </c>
       <c r="L146" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M146" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A147" s="8">
-        <v>45563.88788605324</v>
+        <v>45563.887886053242</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>17</v>
@@ -6521,10 +6551,10 @@
         <v>27</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F147" s="9" t="s">
         <v>21</v>
@@ -6533,25 +6563,25 @@
         <v>22</v>
       </c>
       <c r="I147" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="M147" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N147" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="J147" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K147" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L147" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="M147" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N147" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148">
+    </row>
+    <row r="148" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A148" s="10">
         <v>45563.889229733795</v>
       </c>
@@ -6559,13 +6589,13 @@
         <v>17</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D148" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F148" s="11" t="s">
         <v>21</v>
@@ -6574,21 +6604,21 @@
         <v>21</v>
       </c>
       <c r="O148" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A149" s="8">
         <v>45563.901316793985</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>20</v>
@@ -6600,42 +6630,42 @@
         <v>22</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K149" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L149" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M149" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N149" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q149" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A150" s="10">
-        <v>45563.90268509259</v>
+        <v>45563.902685092587</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F150" s="11" t="s">
         <v>21</v>
@@ -6644,33 +6674,33 @@
         <v>22</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J150" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K150" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L150" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M150" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A151" s="8">
         <v>45563.90589490741</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>20</v>
@@ -6682,36 +6712,36 @@
         <v>22</v>
       </c>
       <c r="I151" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L151" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J151" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K151" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L151" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="M151" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A152" s="10">
         <v>45563.911505393524</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F152" s="11" t="s">
         <v>21</v>
@@ -6720,21 +6750,21 @@
         <v>21</v>
       </c>
       <c r="O152" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A153" s="8">
         <v>45563.92628443287</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>28</v>
@@ -6755,68 +6785,68 @@
         <v>24</v>
       </c>
       <c r="L153" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M153" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N153" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q153" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A154" s="10">
-        <v>45563.93776226851</v>
+        <v>45563.937762268513</v>
       </c>
       <c r="B154" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I154" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J154" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K154" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L154" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C154" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H154" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I154" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J154" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K154" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L154" s="11" t="s">
+      <c r="M154" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M154" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="155">
+    </row>
+    <row r="155" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A155" s="8">
-        <v>45563.95349013889</v>
+        <v>45563.953490138891</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>28</v>
@@ -6828,7 +6858,7 @@
         <v>22</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J155" s="9" t="s">
         <v>23</v>
@@ -6837,30 +6867,30 @@
         <v>24</v>
       </c>
       <c r="L155" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M155" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N155" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q155" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A156" s="10">
         <v>45563.953874803236</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>20</v>
@@ -6872,21 +6902,21 @@
         <v>21</v>
       </c>
       <c r="O156" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A157" s="8">
         <v>45563.960861898144</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>28</v>
@@ -6898,25 +6928,25 @@
         <v>22</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L157" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M157" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N157" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A158" s="10">
         <v>45563.965329618055</v>
       </c>
@@ -6939,33 +6969,33 @@
         <v>22</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K158" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L158" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M158" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A159" s="8">
-        <v>45563.96909236111</v>
+        <v>45563.969092361112</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>28</v>
@@ -6977,27 +7007,27 @@
         <v>21</v>
       </c>
       <c r="O159" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P159" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q159" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A160" s="10">
         <v>45563.969281805556</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>20</v>
@@ -7009,7 +7039,7 @@
         <v>22</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J160" s="11" t="s">
         <v>23</v>
@@ -7018,13 +7048,13 @@
         <v>24</v>
       </c>
       <c r="L160" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M160" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A161" s="8">
         <v>45564.03432244213</v>
       </c>
@@ -7047,24 +7077,24 @@
         <v>22</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J161" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L161" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K161" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L161" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="M161" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A162" s="10">
-        <v>45564.0590130787</v>
+        <v>45564.059013078702</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>17</v>
@@ -7073,16 +7103,16 @@
         <v>27</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H162" s="11" t="s">
         <v>22</v>
@@ -7097,24 +7127,24 @@
         <v>24</v>
       </c>
       <c r="L162" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M162" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A163" s="8">
         <v>45564.099716261575</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>20</v>
@@ -7126,94 +7156,94 @@
         <v>21</v>
       </c>
       <c r="O163" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P163" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A164" s="10">
+        <v>45564.128829780093</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K164" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L164" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M164" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N164" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="10">
-        <v>45564.12882978009</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F164" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H164" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J164" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K164" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L164" s="11" t="s">
+    <row r="165" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A165" s="8">
+        <v>45564.320730358799</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O165" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="M164" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N164" s="11" t="s">
+      <c r="P165" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="8">
-        <v>45564.3207303588</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H165" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O165" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="P165" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166">
+    <row r="166" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A166" s="10">
         <v>45564.324541435184</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>28</v>
@@ -7225,24 +7255,24 @@
         <v>22</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J166" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K166" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L166" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M166" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A167" s="8">
-        <v>45564.36199980324</v>
+        <v>45564.361999803237</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>17</v>
@@ -7251,7 +7281,7 @@
         <v>18</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>20</v>
@@ -7263,13 +7293,13 @@
         <v>21</v>
       </c>
       <c r="O167" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P167" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A168" s="10">
         <v>45564.36491704861</v>
       </c>
@@ -7283,7 +7313,7 @@
         <v>19</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F168" s="11" t="s">
         <v>21</v>
@@ -7292,27 +7322,27 @@
         <v>22</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J168" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K168" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L168" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M168" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N168" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A169" s="8">
-        <v>45564.37963131945</v>
+        <v>45564.379631319447</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>17</v>
@@ -7336,19 +7366,19 @@
         <v>23</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L169" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M169" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A170" s="10">
         <v>45564.404523634264</v>
       </c>
@@ -7377,36 +7407,36 @@
         <v>23</v>
       </c>
       <c r="K170" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L170" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M170" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N170" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q170" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A171" s="8">
         <v>45564.431125393516</v>
       </c>
       <c r="B171" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C171" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="E171" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>21</v>
@@ -7415,39 +7445,39 @@
         <v>22</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K171" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L171" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M171" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N171" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A172" s="10">
         <v>45564.452849444446</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F172" s="11" t="s">
         <v>21</v>
@@ -7456,22 +7486,22 @@
         <v>22</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K172" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L172" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M172" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A173" s="8">
         <v>45564.453709849535</v>
       </c>
@@ -7485,7 +7515,7 @@
         <v>19</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>21</v>
@@ -7494,56 +7524,56 @@
         <v>21</v>
       </c>
       <c r="O173" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A174" s="10">
+        <v>45564.502031759257</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I174" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K174" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L174" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M174" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N174" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="10">
-        <v>45564.50203175926</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E174" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I174" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J174" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K174" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L174" s="11" t="s">
+      <c r="Q174" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="M174" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N174" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q174" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="175">
+    </row>
+    <row r="175" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A175" s="8">
-        <v>45564.57472872685</v>
+        <v>45564.574728726853</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>17</v>
@@ -7567,30 +7597,30 @@
         <v>23</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L175" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M175" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M175" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="176">
+    </row>
+    <row r="176" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A176" s="10">
-        <v>45564.58076082176</v>
+        <v>45564.580760821758</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>20</v>
@@ -7602,27 +7632,27 @@
         <v>22</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J176" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K176" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L176" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M176" s="11" t="s">
         <v>26</v>
       </c>
       <c r="N176" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A177" s="8">
-        <v>45564.58086577547</v>
+        <v>45564.580865775468</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>17</v>
@@ -7643,7 +7673,7 @@
         <v>22</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J177" s="9" t="s">
         <v>23</v>
@@ -7652,18 +7682,18 @@
         <v>24</v>
       </c>
       <c r="L177" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M177" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A178" s="10">
         <v>45564.595074502315</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>18</v>
@@ -7681,12 +7711,12 @@
         <v>21</v>
       </c>
       <c r="O178" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A179" s="8">
-        <v>45564.59857587963</v>
+        <v>45564.598575879631</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>17</v>
@@ -7707,7 +7737,7 @@
         <v>22</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J179" s="9" t="s">
         <v>23</v>
@@ -7716,13 +7746,13 @@
         <v>24</v>
       </c>
       <c r="L179" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M179" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A180" s="10">
         <v>45564.606593136574</v>
       </c>
@@ -7736,7 +7766,7 @@
         <v>19</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F180" s="11" t="s">
         <v>21</v>
@@ -7745,24 +7775,24 @@
         <v>22</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J180" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K180" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L180" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M180" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A181" s="8">
-        <v>45564.60720479167</v>
+        <v>45564.607204791668</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>17</v>
@@ -7783,74 +7813,74 @@
         <v>22</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K181" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L181" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
+      <c r="A182" s="10">
+        <v>45564.655106215279</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I182" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J182" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K182" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L182" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="M182" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N182" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M181" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="10">
-        <v>45564.65510621528</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E182" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H182" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I182" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J182" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K182" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L182" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="M182" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N182" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="183">
+    </row>
+    <row r="183" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A183" s="8">
-        <v>45564.73110175926</v>
+        <v>45564.731101759258</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>28</v>
@@ -7871,21 +7901,21 @@
         <v>24</v>
       </c>
       <c r="L183" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M183" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N183" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q183" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A184" s="10">
-        <v>45564.8175903125</v>
+        <v>45564.817590312501</v>
       </c>
       <c r="B184" s="11" t="s">
         <v>17</v>
@@ -7906,36 +7936,36 @@
         <v>22</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J184" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K184" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L184" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M184" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A185" s="8">
-        <v>45564.88708569444</v>
+        <v>45564.887085694441</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F185" s="9" t="s">
         <v>21</v>
@@ -7950,30 +7980,30 @@
         <v>23</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L185" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M185" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N185" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A186" s="10">
-        <v>45564.96965018519</v>
+        <v>45564.969650185187</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E186" s="11" t="s">
         <v>20</v>
@@ -7985,21 +8015,21 @@
         <v>21</v>
       </c>
       <c r="O186" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A187" s="8">
-        <v>45565.01733724537</v>
+        <v>45565.017337245372</v>
       </c>
       <c r="B187" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>20</v>
@@ -8011,21 +8041,21 @@
         <v>21</v>
       </c>
       <c r="O187" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A188" s="10">
         <v>45565.439969583334</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E188" s="11" t="s">
         <v>28</v>
@@ -8043,10 +8073,10 @@
         <v>23</v>
       </c>
       <c r="K188" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L188" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M188" s="11" t="s">
         <v>26</v>
@@ -8055,18 +8085,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A189" s="8">
-        <v>45565.45855822916</v>
+        <v>45565.458558229162</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>20</v>
@@ -8081,33 +8111,33 @@
         <v>23</v>
       </c>
       <c r="J189" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K189" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L189" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M189" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N189" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A190" s="10">
         <v>45565.46924071759</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E190" s="11" t="s">
         <v>28</v>
@@ -8119,33 +8149,33 @@
         <v>22</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J190" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K190" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L190" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M190" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A191" s="8">
         <v>45565.47508423611</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>28</v>
@@ -8157,33 +8187,33 @@
         <v>22</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J191" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K191" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L191" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M191" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A192" s="10">
         <v>45565.506936261576</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E192" s="11" t="s">
         <v>28</v>
@@ -8195,21 +8225,21 @@
         <v>21</v>
       </c>
       <c r="O192" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A193" s="8">
-        <v>45565.55245649305</v>
+        <v>45565.552456493053</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>20</v>
@@ -8221,21 +8251,21 @@
         <v>21</v>
       </c>
       <c r="O193" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A194" s="10">
-        <v>45565.78380415509</v>
+        <v>45565.783804155093</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E194" s="11" t="s">
         <v>28</v>
@@ -8250,21 +8280,21 @@
         <v>23</v>
       </c>
       <c r="J194" s="11" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K194" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L194" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M194" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A195" s="8">
-        <v>45566.27587034722</v>
+        <v>45566.275870347221</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>17</v>
@@ -8285,30 +8315,30 @@
         <v>22</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J195" s="9" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K195" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L195" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M195" s="9" t="s">
         <v>26</v>
       </c>
       <c r="N195" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q195" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A196" s="14">
-        <v>45566.30901924768</v>
+        <v>45566.309019247681</v>
       </c>
       <c r="B196" s="15" t="s">
         <v>17</v>
@@ -8332,31 +8362,31 @@
         <v>23</v>
       </c>
       <c r="J196" s="15" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="K196" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L196" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M196" s="15" t="s">
         <v>26</v>
       </c>
       <c r="N196" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q196" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Q196"/>
+    <hyperlink ref="Q196" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>